--- a/symfony/spreadsheets/example.xlsx
+++ b/symfony/spreadsheets/example.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Klantnummer</t>
   </si>
@@ -44,7 +44,7 @@
     <t>omzet</t>
   </si>
   <si>
-    <t>KwH</t>
+    <t>ingekochte KwH</t>
   </si>
   <si>
     <t>rg fgh</t>
@@ -72,6 +72,21 @@
   </si>
   <si>
     <t>er asd</t>
+  </si>
+  <si>
+    <t>Kees Jansen</t>
+  </si>
+  <si>
+    <t>7751AG</t>
+  </si>
+  <si>
+    <t>Dalen</t>
+  </si>
+  <si>
+    <t>Coevorden</t>
+  </si>
+  <si>
+    <t>Drenthe</t>
   </si>
 </sst>
 </file>
@@ -79,7 +94,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -89,13 +104,28 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA07A"/>
+        <bgColor rgb="FFFFA07A"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,8 +140,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,205 +447,249 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>77</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>2023</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>1142.4</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>66.0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>77</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>2023</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>563.2</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>35.2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>77</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>2023</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>483.2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>30.2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>77</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>2023</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>1751.2</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>102.6</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>49</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>77</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>2024</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>448.0</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>25.2</v>
       </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2023</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1556.8</v>
+      </c>
+      <c r="J7" s="2">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
